--- a/src/main/resource/testData/AddNewCustomerTest.xlsx
+++ b/src/main/resource/testData/AddNewCustomerTest.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3D550D2C-ED41-4B07-9DD1-C9AE7CF6653D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cao hoc Bach Khoa\Do an TN\automationtest-master\src\main\resource\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="6060" xr2:uid="{722C38C5-345E-4219-B56E-60626D588349}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="6060"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="TongHop" sheetId="3" r:id="rId3"/>
+    <sheet name="UseCaseInfo" sheetId="4" r:id="rId1"/>
+    <sheet name="TestSteps" sheetId="1" r:id="rId2"/>
+    <sheet name="TestCases" sheetId="2" r:id="rId3"/>
+    <sheet name="TongHop" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>TSID</t>
   </si>
@@ -91,131 +95,149 @@
     <t>uid</t>
   </si>
   <si>
+    <t>TS04</t>
+  </si>
+  <si>
+    <t>Input Password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>TS05</t>
+  </si>
+  <si>
+    <t>Click button Login</t>
+  </si>
+  <si>
+    <t>clickButton</t>
+  </si>
+  <si>
+    <t>btnLogin</t>
+  </si>
+  <si>
+    <t>TS06</t>
+  </si>
+  <si>
+    <t>Click on link New Customer</t>
+  </si>
+  <si>
+    <t>clickOnLink</t>
+  </si>
+  <si>
+    <t>XPATH</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'New Customer')]</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>TS07</t>
+  </si>
+  <si>
+    <t>Quit browser</t>
+  </si>
+  <si>
+    <t>quitBrowser</t>
+  </si>
+  <si>
+    <t>TestCaseType</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Login_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t>Login_02</t>
+  </si>
+  <si>
+    <t>ascvdf</t>
+  </si>
+  <si>
+    <t>Login_03</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>%Pass</t>
+  </si>
+  <si>
+    <t>%Fail</t>
+  </si>
+  <si>
+    <t>%Skip</t>
+  </si>
+  <si>
+    <t>RunForTestCaseTypes</t>
+  </si>
+  <si>
+    <t>mngr307444</t>
+  </si>
+  <si>
+    <t>sYnEbAs</t>
+  </si>
+  <si>
     <t>{{Username}}</t>
   </si>
   <si>
-    <t>TS04</t>
-  </si>
-  <si>
-    <t>Input Password</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>{{Password}}</t>
   </si>
   <si>
-    <t>TS05</t>
-  </si>
-  <si>
-    <t>Click button Login</t>
-  </si>
-  <si>
-    <t>clickButton</t>
-  </si>
-  <si>
-    <t>btnLogin</t>
-  </si>
-  <si>
-    <t>TS06</t>
-  </si>
-  <si>
-    <t>Click on link New Customer</t>
-  </si>
-  <si>
-    <t>clickOnLink</t>
-  </si>
-  <si>
-    <t>XPATH</t>
-  </si>
-  <si>
-    <t>//a[contains(text(),'New Customer')]</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>TS07</t>
-  </si>
-  <si>
-    <t>Quit browser</t>
-  </si>
-  <si>
-    <t>quitBrowser</t>
-  </si>
-  <si>
-    <t>TestCaseType</t>
-  </si>
-  <si>
-    <t>RunMode</t>
-  </si>
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Login_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           </t>
-  </si>
-  <si>
-    <t>Login_02</t>
-  </si>
-  <si>
-    <t>ascvdf</t>
-  </si>
-  <si>
-    <t>Login_03</t>
-  </si>
-  <si>
-    <t>mngr190648</t>
-  </si>
-  <si>
-    <t>mEvyhAp</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>%Pass</t>
-  </si>
-  <si>
-    <t>%Fail</t>
-  </si>
-  <si>
-    <t>%Skip</t>
-  </si>
-  <si>
-    <t>RunForTestCaseTypes</t>
+    <t>UseCaseName</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>ReleaseVersion</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Round1</t>
+  </si>
+  <si>
+    <t>AddNewCustomer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +278,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +321,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -327,6 +361,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,11 +681,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55273E04-B2BF-4107-979F-50930C36F523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +735,7 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
@@ -683,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -747,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -758,10 +838,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
@@ -770,10 +850,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>11</v>
@@ -784,19 +864,19 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="7" t="s">
@@ -808,37 +888,37 @@
     </row>
     <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -852,18 +932,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{B8458161-184D-4EDE-AD49-A9631EE6380C}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D8B3F5-DA47-494E-B2F7-2E1997AD3FAF}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,33 +957,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E2" s="1">
         <v>123456</v>
@@ -911,36 +991,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -948,8 +1028,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7382363-0C16-4FB0-9D58-FC5ADEDEDAE4}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -960,25 +1040,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
